--- a/briefing/Предварительный расчёт времени на вёрстку.xlsx
+++ b/briefing/Предварительный расчёт времени на вёрстку.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Главная</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>примерно 8 -10 дней</t>
+  </si>
+  <si>
+    <t>Доп работы по анимации</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,99 +559,100 @@
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" t="s">
         <v>34</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>4</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>11</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="2">
-        <f>SUM(C1:C10)</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="C12" s="2">
+        <f>SUM(C1:C11)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>2</v>
@@ -656,361 +660,369 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="3" t="s">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="2">
-        <f>SUM(C13:C18)</f>
+      <c r="C20" s="2">
+        <f>SUM(C14:C19)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>14</v>
       </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="2">
-        <f>SUM(C21:C23)</f>
+      <c r="C25" s="2">
+        <f>SUM(C22:C24)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+    <row r="27" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27">
         <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="2">
-        <f>SUM(C26:C29)</f>
+      <c r="C31" s="2">
+        <f>SUM(C27:C30)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C32">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="2">
-        <f>SUM(C32:C35)</f>
+      <c r="C37" s="2">
+        <f>SUM(C33:C36)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="6" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>11</v>
       </c>
-      <c r="C39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="2">
-        <f>SUM(C38:C42)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
+      <c r="C44" s="2">
+        <f>SUM(C39:C43)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>21</v>
-      </c>
-      <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>26</v>
       </c>
-      <c r="C50">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" t="s">
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="3" t="s">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C52" s="2">
-        <f>SUM(C45:C51)</f>
+      <c r="C53" s="2">
+        <f>SUM(C46:C52)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C55">
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="3" t="s">
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C59" s="2">
-        <f>SUM(C54:C58)</f>
+      <c r="C60" s="2">
+        <f>SUM(C55:C59)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
         <v>30</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
+    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="3" t="s">
+    <row r="64" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C63" s="2">
-        <f>SUM(C60:C62)</f>
+      <c r="C64" s="2">
+        <f>SUM(C61:C63)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>19</v>
-      </c>
-      <c r="C66">
         <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
         <v>32</v>
       </c>
-      <c r="C67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" t="s">
+      <c r="C68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="3" t="s">
+    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C69" s="2">
-        <f>SUM(C65:C68)</f>
+      <c r="C70" s="2">
+        <f>SUM(C66:C69)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="57.75" x14ac:dyDescent="0.85">
-      <c r="A72" s="5" t="s">
+    <row r="73" spans="1:3" ht="57.75" x14ac:dyDescent="0.85">
+      <c r="A73" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B72" s="7">
-        <f>SUM(C11,C19,C24,C30,C36,C43,C52,C59,C63,C69)</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="B73" s="7">
+        <f>SUM(C12,C20,C25,C31,C37,C44,C53,C60,C64,C70)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>36</v>
       </c>
     </row>
